--- a/数据集/staff.xlsx
+++ b/数据集/staff.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>staff_id</t>
   </si>
@@ -148,13 +148,53 @@
   </si>
   <si>
     <t>37</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初级</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高级</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中级</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +214,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,11 +244,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -504,15 +551,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,8 +578,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -551,8 +601,11 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -571,8 +624,11 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -591,8 +647,11 @@
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -611,8 +670,11 @@
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -631,8 +693,11 @@
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -651,8 +716,11 @@
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -671,8 +739,11 @@
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -691,8 +762,11 @@
       <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -711,8 +785,11 @@
       <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -730,6 +807,9 @@
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
